--- a/proj1/Pflanzendaten.xlsx
+++ b/proj1/Pflanzendaten.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hydro\proj1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Riverengineering\proj1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A4DEA6-008B-4F41-A0B4-23AE42795B3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9832F487-65A2-4C37-A880-7532D09EFCDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32430" yWindow="1155" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pflanzendaten.csv" sheetId="1" r:id="rId1"/>
@@ -20,46 +20,217 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Pflanzenarten:</t>
-  </si>
-  <si>
-    <t>Habitat:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="68">
   <si>
     <t>Carex</t>
   </si>
   <si>
-    <t>Alpen</t>
-  </si>
-  <si>
     <t>Populus</t>
   </si>
   <si>
-    <t>Italien</t>
-  </si>
-  <si>
     <t>Alnus</t>
   </si>
   <si>
-    <t>Meer</t>
-  </si>
-  <si>
-    <t>Depth to groundwater</t>
-  </si>
-  <si>
-    <t>scourge</t>
-  </si>
-  <si>
-    <t>root</t>
+    <t>Alpenvorland</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>Baum</t>
+  </si>
+  <si>
+    <t>Aue</t>
+  </si>
+  <si>
+    <t>gras</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>Krautig</t>
+  </si>
+  <si>
+    <t>Ufer</t>
+  </si>
+  <si>
+    <t>Circaea</t>
+  </si>
+  <si>
+    <t>clematis</t>
+  </si>
+  <si>
+    <t>Kletterpflanze</t>
+  </si>
+  <si>
+    <t>Hohe Aue</t>
+  </si>
+  <si>
+    <t>fraxinus</t>
+  </si>
+  <si>
+    <t>Froschbiß</t>
+  </si>
+  <si>
+    <t>Hydrocharis morsus-ranae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alnus Incana </t>
+  </si>
+  <si>
+    <t>Carex sylvatica</t>
+  </si>
+  <si>
+    <t>Carex acuta</t>
+  </si>
+  <si>
+    <t>Circaea lutetiana</t>
+  </si>
+  <si>
+    <t>Clematis Vitalba</t>
+  </si>
+  <si>
+    <t>Fraxinus excelsior</t>
+  </si>
+  <si>
+    <t>Wasserpflanze</t>
+  </si>
+  <si>
+    <t>Fluss</t>
+  </si>
+  <si>
+    <t>Humulus</t>
+  </si>
+  <si>
+    <t>Humulus Lupulus</t>
+  </si>
+  <si>
+    <t>Aue/Uferbrüche</t>
+  </si>
+  <si>
+    <t>Myricaria</t>
+  </si>
+  <si>
+    <t>Myricaria germanica</t>
+  </si>
+  <si>
+    <t>Strauch</t>
+  </si>
+  <si>
+    <t>Phalaris</t>
+  </si>
+  <si>
+    <t>Phalaris arundinacea</t>
+  </si>
+  <si>
+    <t>Gras</t>
+  </si>
+  <si>
+    <t>Phragmites</t>
+  </si>
+  <si>
+    <t>Phragmites australis</t>
+  </si>
+  <si>
+    <t>Ufer/Sumpf</t>
+  </si>
+  <si>
+    <t>Populus nigra</t>
+  </si>
+  <si>
+    <t>Populus alba</t>
+  </si>
+  <si>
+    <t>Potamogeto</t>
+  </si>
+  <si>
+    <t>Potamogeto pectinatus</t>
+  </si>
+  <si>
+    <t>Salix</t>
+  </si>
+  <si>
+    <t>Salix purpurea</t>
+  </si>
+  <si>
+    <t>Salix fragilis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salix alba </t>
+  </si>
+  <si>
+    <t>baum</t>
+  </si>
+  <si>
+    <t>Salix eleagnos</t>
+  </si>
+  <si>
+    <t>Solanum</t>
+  </si>
+  <si>
+    <t>Solanum Dulcamara</t>
+  </si>
+  <si>
+    <t>Aue/Röhricht</t>
+  </si>
+  <si>
+    <t>Sparganium</t>
+  </si>
+  <si>
+    <t>Sparganium erectum</t>
+  </si>
+  <si>
+    <t>Typha</t>
+  </si>
+  <si>
+    <t>Typha latifola</t>
+  </si>
+  <si>
+    <t>Calamagrostis pseudophragmites</t>
+  </si>
+  <si>
+    <t>0.9 min</t>
+  </si>
+  <si>
+    <t>20 bis 40</t>
+  </si>
+  <si>
+    <t>20 bis 350</t>
+  </si>
+  <si>
+    <t>90cm ver und 2-3m horizontal</t>
+  </si>
+  <si>
+    <t>Pflanzen</t>
+  </si>
+  <si>
+    <t>Name Spez</t>
+  </si>
+  <si>
+    <t>Nativ?</t>
+  </si>
+  <si>
+    <t>Art</t>
+  </si>
+  <si>
+    <t>Vorkommen</t>
+  </si>
+  <si>
+    <t>Habitat</t>
+  </si>
+  <si>
+    <t>Wassertiefe</t>
+  </si>
+  <si>
+    <t>wurzeltziefe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +364,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -536,8 +713,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -893,65 +1071,491 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="E14" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="F14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
         <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>